--- a/Cost/Cost_SmartVision.xlsx
+++ b/Cost/Cost_SmartVision.xlsx
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -782,20 +782,20 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="J4" s="3">
-        <f>G4*H4</f>
+        <f t="shared" ref="J4:J28" si="0">G4*H4</f>
         <v>1.266</v>
       </c>
       <c r="K4" s="3">
-        <f>G4*I4</f>
+        <f t="shared" ref="K4:K28" si="1">G4*I4</f>
         <v>1.266</v>
       </c>
       <c r="O4" s="3">
         <f>SUM(J4:J29)</f>
-        <v>49.591400000000021</v>
+        <v>50.842400000000012</v>
       </c>
       <c r="P4" s="3">
         <f>SUM(K4:K29)</f>
-        <v>43.821400000000011</v>
+        <v>45.072400000000009</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -824,11 +824,11 @@
         <v>0.38</v>
       </c>
       <c r="J5" s="3">
-        <f>G5*H5</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="K5" s="3">
-        <f>G5*I5</f>
+        <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
     </row>
@@ -858,11 +858,11 @@
         <v>14.5</v>
       </c>
       <c r="J6" s="3">
-        <f>G6*H6</f>
+        <f t="shared" si="0"/>
         <v>16.25</v>
       </c>
       <c r="K6" s="3">
-        <f>G6*I6</f>
+        <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
     </row>
@@ -892,11 +892,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J7" s="3">
-        <f>G7*H7</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K7" s="3">
-        <f>G7*I7</f>
+        <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -926,11 +926,11 @@
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="J8" s="3">
-        <f>G8*H8</f>
+        <f t="shared" si="0"/>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="K8" s="3">
-        <f>G8*I8</f>
+        <f t="shared" si="1"/>
         <v>7.5499999999999998E-2</v>
       </c>
     </row>
@@ -960,11 +960,11 @@
         <v>1.52E-2</v>
       </c>
       <c r="J9" s="3">
-        <f>G9*H9</f>
+        <f t="shared" si="0"/>
         <v>3.04E-2</v>
       </c>
       <c r="K9" s="3">
-        <f>G9*I9</f>
+        <f t="shared" si="1"/>
         <v>3.04E-2</v>
       </c>
     </row>
@@ -994,11 +994,11 @@
         <v>1.46E-2</v>
       </c>
       <c r="J10" s="3">
-        <f>G10*H10</f>
+        <f t="shared" si="0"/>
         <v>1.46E-2</v>
       </c>
       <c r="K10" s="3">
-        <f>G10*I10</f>
+        <f t="shared" si="1"/>
         <v>1.46E-2</v>
       </c>
     </row>
@@ -1028,11 +1028,11 @@
         <v>2.02</v>
       </c>
       <c r="J11" s="3">
-        <f>G11*H11</f>
+        <f t="shared" si="0"/>
         <v>2.02</v>
       </c>
       <c r="K11" s="3">
-        <f>G11*I11</f>
+        <f t="shared" si="1"/>
         <v>2.02</v>
       </c>
     </row>
@@ -1062,11 +1062,11 @@
         <v>8.4</v>
       </c>
       <c r="J12" s="3">
-        <f>G12*H12</f>
+        <f t="shared" si="0"/>
         <v>10.64</v>
       </c>
       <c r="K12" s="3">
-        <f>G12*I12</f>
+        <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
     </row>
@@ -1096,11 +1096,11 @@
         <v>1.4</v>
       </c>
       <c r="J13" s="3">
-        <f>G13*H13</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="K13" s="3">
-        <f>G13*I13</f>
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
     </row>
@@ -1130,11 +1130,11 @@
         <v>9.1700000000000004E-2</v>
       </c>
       <c r="J14" s="3">
-        <f>G14*H14</f>
+        <f t="shared" si="0"/>
         <v>9.1700000000000004E-2</v>
       </c>
       <c r="K14" s="3">
-        <f>G14*I14</f>
+        <f t="shared" si="1"/>
         <v>9.1700000000000004E-2</v>
       </c>
     </row>
@@ -1164,11 +1164,11 @@
         <v>8.8599999999999998E-2</v>
       </c>
       <c r="J15" s="3">
-        <f>G15*H15</f>
+        <f t="shared" si="0"/>
         <v>8.8599999999999998E-2</v>
       </c>
       <c r="K15" s="3">
-        <f>G15*I15</f>
+        <f t="shared" si="1"/>
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
@@ -1198,11 +1198,11 @@
         <v>0.115</v>
       </c>
       <c r="J16" s="3">
-        <f>G16*H16</f>
+        <f t="shared" si="0"/>
         <v>0.115</v>
       </c>
       <c r="K16" s="3">
-        <f>G16*I16</f>
+        <f t="shared" si="1"/>
         <v>0.115</v>
       </c>
     </row>
@@ -1232,11 +1232,11 @@
         <v>0.1671</v>
       </c>
       <c r="J17" s="3">
-        <f>G17*H17</f>
+        <f t="shared" si="0"/>
         <v>0.1671</v>
       </c>
       <c r="K17" s="3">
-        <f>G17*I17</f>
+        <f t="shared" si="1"/>
         <v>0.1671</v>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
         <v>1757771</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3">
         <v>0.41699999999999998</v>
@@ -1266,12 +1266,12 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="J18" s="3">
-        <f>G18*H18</f>
-        <v>0.41699999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1.6679999999999999</v>
       </c>
       <c r="K18" s="3">
-        <f>G18*I18</f>
-        <v>0.41699999999999998</v>
+        <f t="shared" si="1"/>
+        <v>1.6679999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -1300,11 +1300,11 @@
         <v>11.15</v>
       </c>
       <c r="J19" s="3">
-        <f>G19*H19</f>
+        <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
       <c r="K19" s="3">
-        <f>G19*I19</f>
+        <f t="shared" si="1"/>
         <v>11.15</v>
       </c>
     </row>
@@ -1334,11 +1334,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J20" s="3">
-        <f>G20*H20</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="K20" s="3">
-        <f>G20*I20</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1368,11 +1368,11 @@
         <v>0.97</v>
       </c>
       <c r="J21" s="3">
-        <f>G21*H21</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="K21" s="3">
-        <f>G21*I21</f>
+        <f t="shared" si="1"/>
         <v>0.97</v>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         <v>6.9099999999999995E-2</v>
       </c>
       <c r="J22" s="3">
-        <f>G22*H22</f>
+        <f t="shared" si="0"/>
         <v>0.27639999999999998</v>
       </c>
       <c r="K22" s="3">
-        <f>G22*I22</f>
+        <f t="shared" si="1"/>
         <v>0.27639999999999998</v>
       </c>
     </row>
@@ -1436,11 +1436,11 @@
         <v>1.04E-2</v>
       </c>
       <c r="J23" s="3">
-        <f>G23*H23</f>
+        <f t="shared" si="0"/>
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="K23" s="3">
-        <f>G23*I23</f>
+        <f t="shared" si="1"/>
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
@@ -1470,11 +1470,11 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="J24" s="3">
-        <f>G24*H24</f>
+        <f t="shared" si="0"/>
         <v>0.26200000000000001</v>
       </c>
       <c r="K24" s="3">
-        <f>G24*I24</f>
+        <f t="shared" si="1"/>
         <v>0.26200000000000001</v>
       </c>
     </row>
@@ -1504,11 +1504,11 @@
         <v>2.5499999999999998E-2</v>
       </c>
       <c r="J25" s="3">
-        <f>G25*H25</f>
+        <f t="shared" si="0"/>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="K25" s="3">
-        <f>G25*I25</f>
+        <f t="shared" si="1"/>
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
@@ -1538,11 +1538,11 @@
         <v>1.04E-2</v>
       </c>
       <c r="J26" s="3">
-        <f>G26*H26</f>
+        <f t="shared" si="0"/>
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="K26" s="3">
-        <f>G26*I26</f>
+        <f t="shared" si="1"/>
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
@@ -1572,11 +1572,11 @@
         <v>0.374</v>
       </c>
       <c r="J27" s="3">
-        <f>G27*H27</f>
+        <f t="shared" si="0"/>
         <v>0.374</v>
       </c>
       <c r="K27" s="3">
-        <f>G27*I27</f>
+        <f t="shared" si="1"/>
         <v>0.374</v>
       </c>
     </row>
@@ -1606,11 +1606,11 @@
         <v>1.35E-2</v>
       </c>
       <c r="J28" s="3">
-        <f>G28*H28</f>
+        <f t="shared" si="0"/>
         <v>0.17549999999999999</v>
       </c>
       <c r="K28" s="3">
-        <f>G28*I28</f>
+        <f t="shared" si="1"/>
         <v>0.17549999999999999</v>
       </c>
     </row>
